--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2308723.52644695</v>
+        <v>-2311628.398594103</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>30.29207493223153</v>
+        <v>151.4705587190143</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>320.6602214952777</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.28762836474378</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.237314811077</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.49587233704628</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>176.662282741994</v>
       </c>
       <c r="W5" t="n">
-        <v>341.2578399936063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>109.7756561963045</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7483282677571</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.015241616802391</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>57.88913592918905</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>214.1177467433087</v>
       </c>
       <c r="Y10" t="n">
-        <v>147.6349052887054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076562</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229328</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222801</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>75.94597652115795</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.279002797132</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.279002797132</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1689.418334772944</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.279002797132</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3443099123614</v>
+        <v>87.56684885545918</v>
       </c>
       <c r="C4" t="n">
-        <v>170.3443099123614</v>
+        <v>87.56684885545918</v>
       </c>
       <c r="D4" t="n">
-        <v>170.3443099123614</v>
+        <v>87.56684885545918</v>
       </c>
       <c r="E4" t="n">
-        <v>170.3443099123614</v>
+        <v>87.56684885545918</v>
       </c>
       <c r="F4" t="n">
-        <v>170.3443099123614</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>170.3443099123614</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>170.3443099123614</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426011</v>
+        <v>87.56684885545918</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426011</v>
+        <v>87.56684885545918</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
         <v>548.527081850681</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.778685247039</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1282.700798147047</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1927.467999148197</v>
+        <v>1764.194881475117</v>
       </c>
       <c r="C8" t="n">
-        <v>1558.505482207785</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1064.6587064803</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2150.794721539239</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4738348035461</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4738348035461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>497.4738348035461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>497.4738348035461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>828.2484665920741</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="W10" t="n">
-        <v>828.2484665920741</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="X10" t="n">
-        <v>828.2484665920741</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.1222996337858</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557721</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557721</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>853.936052826184</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138482</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5467,19 +5467,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
         <v>782.5512955656818</v>
@@ -6133,10 +6133,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7108,16 +7108,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954142</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311317</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>63.64207105006795</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>218.6908684491589</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>203.2124829016687</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>49.0708791831913</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.72830698126124</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.2137830519909</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744673</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>141.4594738061303</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-3.785860641657541e-13</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.846434575361833e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1150912.466474988</v>
+        <v>1150912.466474989</v>
       </c>
     </row>
     <row r="3">
@@ -26317,43 +26317,43 @@
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450032</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="H2" t="n">
         <v>40357.32998450029</v>
       </c>
-      <c r="H2" t="n">
-        <v>40357.32998450032</v>
-      </c>
       <c r="I2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321421</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.0884932142</v>
-      </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103920.2865912123</v>
+        <v>103920.2865912124</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26427,37 +26427,37 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682765</v>
       </c>
       <c r="I4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744981.0912164435</v>
+        <v>-745445.388008468</v>
       </c>
       <c r="C6" t="n">
         <v>-251729.4050332286</v>
@@ -26528,19 +26528,19 @@
         <v>-407533.2111270236</v>
       </c>
       <c r="E6" t="n">
-        <v>-837495.4277868959</v>
+        <v>-837530.1657123315</v>
       </c>
       <c r="F6" t="n">
-        <v>-66442.73640608953</v>
+        <v>-66477.47433152524</v>
       </c>
       <c r="G6" t="n">
-        <v>-66442.73640608958</v>
+        <v>-66477.47433152526</v>
       </c>
       <c r="H6" t="n">
-        <v>-66442.73640608956</v>
+        <v>-66477.47433152526</v>
       </c>
       <c r="I6" t="n">
-        <v>-95208.1411841092</v>
+        <v>-95208.14118410918</v>
       </c>
       <c r="J6" t="n">
         <v>-252203.6423830703</v>
@@ -26555,13 +26555,13 @@
         <v>-199988.9338985359</v>
       </c>
       <c r="N6" t="n">
-        <v>-95208.1411841092</v>
+        <v>-95208.14118410918</v>
       </c>
       <c r="O6" t="n">
+        <v>-75780.42319047744</v>
+      </c>
+      <c r="P6" t="n">
         <v>-75780.42319047742</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-75780.42319047745</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>324.3909666884514</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>112.1334196581875</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>151.0899757281409</v>
       </c>
       <c r="W5" t="n">
-        <v>7.983128723806715</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>115.2594492617797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9613271212801</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.7186000466782</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>307.3837558418185</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>11.59190864572849</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.94974806338936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>252.2273365302777</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>414.988053188535</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35264,13 +35264,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
